--- a/Team-Data/2008-09/2-22-2008-09.xlsx
+++ b/Team-Data/2008-09/2-22-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -762,7 +829,7 @@
         <v>22</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
         <v>14</v>
@@ -777,10 +844,10 @@
         <v>14</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
@@ -792,16 +859,16 @@
         <v>19</v>
       </c>
       <c r="AT2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX2" t="n">
         <v>19</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-22-2008-09</t>
+          <t>2009-02-22</t>
         </is>
       </c>
     </row>
@@ -863,49 +930,49 @@
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="J3" t="n">
         <v>77.3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.486</v>
+        <v>0.483</v>
       </c>
       <c r="L3" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M3" t="n">
         <v>16.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.387</v>
+        <v>0.383</v>
       </c>
       <c r="O3" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="P3" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.775</v>
+        <v>0.773</v>
       </c>
       <c r="R3" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S3" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T3" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U3" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V3" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="W3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X3" t="n">
         <v>4.8</v>
@@ -914,16 +981,16 @@
         <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AA3" t="n">
         <v>22.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.7</v>
+        <v>101</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="AD3" t="n">
         <v>5</v>
@@ -950,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM3" t="n">
         <v>20</v>
@@ -959,19 +1026,19 @@
         <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ3" t="n">
         <v>13</v>
       </c>
       <c r="AR3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
         <v>6</v>
@@ -986,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
@@ -998,7 +1065,7 @@
         <v>6</v>
       </c>
       <c r="BB3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-22-2008-09</t>
+          <t>2009-02-22</t>
         </is>
       </c>
     </row>
@@ -1030,37 +1097,37 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" t="n">
         <v>22</v>
       </c>
       <c r="F4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" t="n">
-        <v>0.393</v>
+        <v>0.4</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
       </c>
       <c r="I4" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="J4" t="n">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.447</v>
+        <v>0.449</v>
       </c>
       <c r="L4" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M4" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.361</v>
+        <v>0.364</v>
       </c>
       <c r="O4" t="n">
         <v>17.9</v>
@@ -1069,7 +1136,7 @@
         <v>24.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.739</v>
+        <v>0.737</v>
       </c>
       <c r="R4" t="n">
         <v>10.8</v>
@@ -1081,34 +1148,34 @@
         <v>39.5</v>
       </c>
       <c r="U4" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V4" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y4" t="n">
         <v>6.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA4" t="n">
         <v>21.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.1</v>
+        <v>-1.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
         <v>22</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
@@ -1138,10 +1205,10 @@
         <v>23</v>
       </c>
       <c r="AN4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP4" t="n">
         <v>20</v>
@@ -1159,22 +1226,22 @@
         <v>25</v>
       </c>
       <c r="AU4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV4" t="n">
         <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA4" t="n">
         <v>14</v>
@@ -1183,7 +1250,7 @@
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-22-2008-09</t>
+          <t>2009-02-22</t>
         </is>
       </c>
     </row>
@@ -1215,28 +1282,28 @@
         <v>55</v>
       </c>
       <c r="E5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" t="n">
-        <v>0.436</v>
+        <v>0.455</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M5" t="n">
         <v>15.8</v>
@@ -1245,58 +1312,58 @@
         <v>0.377</v>
       </c>
       <c r="O5" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="P5" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.79</v>
+        <v>0.791</v>
       </c>
       <c r="R5" t="n">
         <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="T5" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U5" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="V5" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y5" t="n">
         <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.5</v>
+        <v>100.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.6</v>
+        <v>-1.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
         <v>18</v>
@@ -1311,7 +1378,7 @@
         <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>22</v>
@@ -1320,13 +1387,13 @@
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
@@ -1338,7 +1405,7 @@
         <v>14</v>
       </c>
       <c r="AT5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU5" t="n">
         <v>12</v>
@@ -1347,7 +1414,7 @@
         <v>24</v>
       </c>
       <c r="AW5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX5" t="n">
         <v>4</v>
@@ -1359,7 +1426,7 @@
         <v>20</v>
       </c>
       <c r="BA5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB5" t="n">
         <v>12</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-22-2008-09</t>
+          <t>2009-02-22</t>
         </is>
       </c>
     </row>
@@ -1397,88 +1464,88 @@
         <v>53</v>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.792</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J6" t="n">
-        <v>78.5</v>
+        <v>78.3</v>
       </c>
       <c r="K6" t="n">
         <v>0.475</v>
       </c>
       <c r="L6" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
         <v>20.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.388</v>
+        <v>0.383</v>
       </c>
       <c r="O6" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P6" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.752</v>
+        <v>0.751</v>
       </c>
       <c r="R6" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S6" t="n">
         <v>31.1</v>
       </c>
       <c r="T6" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U6" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V6" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="W6" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y6" t="n">
         <v>3.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.2</v>
+        <v>100.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.4</v>
+        <v>9.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE6" t="n">
         <v>3</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG6" t="n">
         <v>2</v>
@@ -1490,25 +1557,25 @@
         <v>10</v>
       </c>
       <c r="AJ6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
         <v>5</v>
       </c>
       <c r="AL6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM6" t="n">
         <v>4</v>
       </c>
       <c r="AN6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>23</v>
@@ -1520,31 +1587,31 @@
         <v>10</v>
       </c>
       <c r="AT6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU6" t="n">
         <v>24</v>
       </c>
       <c r="AV6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AW6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY6" t="n">
         <v>4</v>
       </c>
       <c r="AZ6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-22-2008-09</t>
+          <t>2009-02-22</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>9</v>
@@ -1684,7 +1751,7 @@
         <v>11</v>
       </c>
       <c r="AN7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
         <v>25</v>
@@ -1699,7 +1766,7 @@
         <v>14</v>
       </c>
       <c r="AS7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT7" t="n">
         <v>7</v>
@@ -1723,10 +1790,10 @@
         <v>3</v>
       </c>
       <c r="BA7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BC7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-22-2008-09</t>
+          <t>2009-02-22</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" t="n">
         <v>37</v>
       </c>
       <c r="F8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" t="n">
-        <v>0.661</v>
+        <v>0.673</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
@@ -1776,7 +1843,7 @@
         <v>37</v>
       </c>
       <c r="J8" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K8" t="n">
         <v>0.472</v>
@@ -1788,31 +1855,31 @@
         <v>17.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.369</v>
+        <v>0.368</v>
       </c>
       <c r="O8" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="P8" t="n">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.758</v>
+        <v>0.756</v>
       </c>
       <c r="R8" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S8" t="n">
         <v>30.5</v>
       </c>
       <c r="T8" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U8" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V8" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="W8" t="n">
         <v>9.1</v>
@@ -1821,22 +1888,22 @@
         <v>5.7</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.6</v>
+        <v>103.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1854,7 +1921,7 @@
         <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
@@ -1866,10 +1933,10 @@
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP8" t="n">
         <v>1</v>
@@ -1884,13 +1951,13 @@
         <v>12</v>
       </c>
       <c r="AT8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU8" t="n">
         <v>6</v>
       </c>
       <c r="AV8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1902,16 +1969,16 @@
         <v>27</v>
       </c>
       <c r="AZ8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB8" t="n">
         <v>6</v>
       </c>
       <c r="BC8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-22-2008-09</t>
+          <t>2009-02-22</t>
         </is>
       </c>
     </row>
@@ -1940,88 +2007,88 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" t="n">
         <v>27</v>
       </c>
       <c r="F9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>0.509</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J9" t="n">
-        <v>79.3</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.453</v>
+        <v>0.455</v>
       </c>
       <c r="L9" t="n">
         <v>4.6</v>
       </c>
       <c r="M9" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="N9" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O9" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P9" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.744</v>
+        <v>0.745</v>
       </c>
       <c r="R9" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S9" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T9" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U9" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V9" t="n">
         <v>12.1</v>
       </c>
       <c r="W9" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X9" t="n">
         <v>4.8</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.2</v>
+        <v>93.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AE9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
         <v>15</v>
@@ -2033,7 +2100,7 @@
         <v>12</v>
       </c>
       <c r="AI9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
         <v>19</v>
@@ -2048,7 +2115,7 @@
         <v>28</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
         <v>29</v>
@@ -2057,16 +2124,16 @@
         <v>27</v>
       </c>
       <c r="AQ9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AS9" t="n">
         <v>16</v>
       </c>
       <c r="AT9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU9" t="n">
         <v>23</v>
@@ -2078,16 +2145,16 @@
         <v>28</v>
       </c>
       <c r="AX9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
         <v>6</v>
       </c>
       <c r="AZ9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB9" t="n">
         <v>29</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-22-2008-09</t>
+          <t>2009-02-22</t>
         </is>
       </c>
     </row>
@@ -2230,10 +2297,10 @@
         <v>17</v>
       </c>
       <c r="AN10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP10" t="n">
         <v>2</v>
@@ -2248,10 +2315,10 @@
         <v>15</v>
       </c>
       <c r="AT10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV10" t="n">
         <v>19</v>
@@ -2269,13 +2336,13 @@
         <v>22</v>
       </c>
       <c r="BA10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB10" t="n">
         <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-22-2008-09</t>
+          <t>2009-02-22</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" t="n">
         <v>21</v>
       </c>
       <c r="G11" t="n">
-        <v>0.625</v>
+        <v>0.618</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
@@ -2322,37 +2389,37 @@
         <v>35.5</v>
       </c>
       <c r="J11" t="n">
-        <v>79.7</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L11" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M11" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="N11" t="n">
-        <v>0.379</v>
+        <v>0.377</v>
       </c>
       <c r="O11" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="P11" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R11" t="n">
         <v>10.9</v>
       </c>
       <c r="S11" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T11" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U11" t="n">
         <v>20.5</v>
@@ -2361,13 +2428,13 @@
         <v>14.3</v>
       </c>
       <c r="W11" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="X11" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z11" t="n">
         <v>18.9</v>
@@ -2376,13 +2443,13 @@
         <v>20.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
@@ -2397,22 +2464,22 @@
         <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ11" t="n">
         <v>16</v>
       </c>
       <c r="AK11" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM11" t="n">
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO11" t="n">
         <v>11</v>
@@ -2424,28 +2491,28 @@
         <v>4</v>
       </c>
       <c r="AR11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
         <v>19</v>
       </c>
       <c r="AV11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW11" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ11" t="n">
         <v>2</v>
@@ -2457,7 +2524,7 @@
         <v>18</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-22-2008-09</t>
+          <t>2009-02-22</t>
         </is>
       </c>
     </row>
@@ -2486,37 +2553,37 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" t="n">
         <v>34</v>
       </c>
       <c r="G12" t="n">
-        <v>0.414</v>
+        <v>0.404</v>
       </c>
       <c r="H12" t="n">
         <v>48.5</v>
       </c>
       <c r="I12" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="J12" t="n">
         <v>86</v>
       </c>
       <c r="K12" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L12" t="n">
         <v>7.8</v>
       </c>
       <c r="M12" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="O12" t="n">
         <v>19.1</v>
@@ -2528,49 +2595,49 @@
         <v>0.806</v>
       </c>
       <c r="R12" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S12" t="n">
         <v>32.2</v>
       </c>
       <c r="T12" t="n">
-        <v>43.4</v>
+        <v>43.3</v>
       </c>
       <c r="U12" t="n">
         <v>22.5</v>
       </c>
       <c r="V12" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W12" t="n">
         <v>6.9</v>
       </c>
       <c r="X12" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y12" t="n">
         <v>5.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.9</v>
+        <v>-2.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG12" t="n">
         <v>21</v>
@@ -2588,7 +2655,7 @@
         <v>17</v>
       </c>
       <c r="AL12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM12" t="n">
         <v>3</v>
@@ -2597,7 +2664,7 @@
         <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP12" t="n">
         <v>21</v>
@@ -2621,7 +2688,7 @@
         <v>22</v>
       </c>
       <c r="AW12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
@@ -2630,7 +2697,7 @@
         <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA12" t="n">
         <v>11</v>
@@ -2639,7 +2706,7 @@
         <v>5</v>
       </c>
       <c r="BC12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-22-2008-09</t>
+          <t>2009-02-22</t>
         </is>
       </c>
     </row>
@@ -2668,46 +2735,46 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" t="n">
-        <v>0.232</v>
+        <v>0.236</v>
       </c>
       <c r="H13" t="n">
         <v>48.6</v>
       </c>
       <c r="I13" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J13" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.434</v>
+        <v>0.436</v>
       </c>
       <c r="L13" t="n">
         <v>6.3</v>
       </c>
       <c r="M13" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O13" t="n">
         <v>17.1</v>
       </c>
       <c r="P13" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.749</v>
+        <v>0.751</v>
       </c>
       <c r="R13" t="n">
         <v>11.3</v>
@@ -2716,10 +2783,10 @@
         <v>28.8</v>
       </c>
       <c r="T13" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="U13" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V13" t="n">
         <v>14.8</v>
@@ -2731,22 +2798,22 @@
         <v>6.1</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AA13" t="n">
         <v>19.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="AC13" t="n">
-        <v>-8.9</v>
+        <v>-8.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
@@ -2758,10 +2825,10 @@
         <v>27</v>
       </c>
       <c r="AH13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ13" t="n">
         <v>8</v>
@@ -2776,13 +2843,13 @@
         <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO13" t="n">
         <v>27</v>
       </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ13" t="n">
         <v>24</v>
@@ -2794,28 +2861,28 @@
         <v>25</v>
       </c>
       <c r="AT13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW13" t="n">
         <v>23</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>20</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-22-2008-09</t>
+          <t>2009-02-22</t>
         </is>
       </c>
     </row>
@@ -2865,43 +2932,43 @@
         <v>48.4</v>
       </c>
       <c r="I14" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="J14" t="n">
-        <v>85.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.478</v>
+        <v>0.477</v>
       </c>
       <c r="L14" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
         <v>18.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.367</v>
+        <v>0.37</v>
       </c>
       <c r="O14" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="P14" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R14" t="n">
         <v>12.7</v>
       </c>
       <c r="S14" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T14" t="n">
-        <v>44.5</v>
+        <v>44.8</v>
       </c>
       <c r="U14" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="V14" t="n">
         <v>13.6</v>
@@ -2910,7 +2977,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y14" t="n">
         <v>4.6</v>
@@ -2919,16 +2986,16 @@
         <v>20.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AB14" t="n">
-        <v>109.2</v>
+        <v>108.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
@@ -2949,7 +3016,7 @@
         <v>4</v>
       </c>
       <c r="AK14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
         <v>11</v>
@@ -2958,7 +3025,7 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
         <v>5</v>
@@ -2967,13 +3034,13 @@
         <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2994,7 +3061,7 @@
         <v>14</v>
       </c>
       <c r="AZ14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-22-2008-09</t>
+          <t>2009-02-22</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3122,7 +3189,7 @@
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
         <v>29</v>
@@ -3131,7 +3198,7 @@
         <v>27</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL15" t="n">
         <v>28</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-22-2008-09</t>
+          <t>2009-02-22</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" t="n">
         <v>29</v>
       </c>
       <c r="F16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" t="n">
-        <v>0.527</v>
+        <v>0.537</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
@@ -3232,19 +3299,19 @@
         <v>36.4</v>
       </c>
       <c r="J16" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L16" t="n">
         <v>6.8</v>
       </c>
       <c r="M16" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N16" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O16" t="n">
         <v>16.9</v>
@@ -3253,22 +3320,22 @@
         <v>22.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.747</v>
+        <v>0.744</v>
       </c>
       <c r="R16" t="n">
         <v>10.1</v>
       </c>
       <c r="S16" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="T16" t="n">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="U16" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V16" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="W16" t="n">
         <v>8.1</v>
@@ -3286,13 +3353,13 @@
         <v>19.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>96.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3322,16 +3389,16 @@
         <v>10</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
         <v>28</v>
       </c>
       <c r="AP16" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AR16" t="n">
         <v>24</v>
@@ -3340,7 +3407,7 @@
         <v>24</v>
       </c>
       <c r="AT16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU16" t="n">
         <v>26</v>
@@ -3352,22 +3419,22 @@
         <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
         <v>5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB16" t="n">
         <v>23</v>
       </c>
       <c r="BC16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-22-2008-09</t>
+          <t>2009-02-22</t>
         </is>
       </c>
     </row>
@@ -3399,13 +3466,13 @@
         <v>58</v>
       </c>
       <c r="E17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" t="n">
-        <v>0.483</v>
+        <v>0.466</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,64 +3481,64 @@
         <v>36.6</v>
       </c>
       <c r="J17" t="n">
-        <v>81.40000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="K17" t="n">
         <v>0.45</v>
       </c>
       <c r="L17" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M17" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.362</v>
+        <v>0.361</v>
       </c>
       <c r="O17" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="P17" t="n">
-        <v>26.6</v>
+        <v>26.2</v>
       </c>
       <c r="Q17" t="n">
         <v>0.781</v>
       </c>
       <c r="R17" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="T17" t="n">
         <v>41.3</v>
       </c>
       <c r="U17" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V17" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W17" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X17" t="n">
         <v>3.7</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z17" t="n">
         <v>23.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3480,7 +3547,7 @@
         <v>15</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
@@ -3489,7 +3556,7 @@
         <v>18</v>
       </c>
       <c r="AI17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
         <v>11</v>
@@ -3501,13 +3568,13 @@
         <v>23</v>
       </c>
       <c r="AM17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP17" t="n">
         <v>7</v>
@@ -3522,13 +3589,13 @@
         <v>23</v>
       </c>
       <c r="AT17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU17" t="n">
         <v>10</v>
       </c>
       <c r="AV17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AW17" t="n">
         <v>15</v>
@@ -3540,7 +3607,7 @@
         <v>12</v>
       </c>
       <c r="AZ17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA17" t="n">
         <v>4</v>
@@ -3549,7 +3616,7 @@
         <v>13</v>
       </c>
       <c r="BC17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-22-2008-09</t>
+          <t>2009-02-22</t>
         </is>
       </c>
     </row>
@@ -3578,64 +3645,64 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" t="n">
         <v>18</v>
       </c>
       <c r="F18" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" t="n">
-        <v>0.327</v>
+        <v>0.333</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
       </c>
       <c r="I18" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J18" t="n">
         <v>83.7</v>
       </c>
       <c r="K18" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L18" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M18" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="N18" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O18" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P18" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q18" t="n">
         <v>0.766</v>
       </c>
       <c r="R18" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S18" t="n">
         <v>29.8</v>
       </c>
       <c r="T18" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U18" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V18" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W18" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X18" t="n">
         <v>4.1</v>
@@ -3650,19 +3717,19 @@
         <v>20.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC18" t="n">
         <v>-3.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
       </c>
       <c r="AF18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG18" t="n">
         <v>25</v>
@@ -3671,7 +3738,7 @@
         <v>9</v>
       </c>
       <c r="AI18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AJ18" t="n">
         <v>5</v>
@@ -3686,10 +3753,10 @@
         <v>16</v>
       </c>
       <c r="AN18" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP18" t="n">
         <v>14</v>
@@ -3701,19 +3768,19 @@
         <v>4</v>
       </c>
       <c r="AS18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU18" t="n">
         <v>21</v>
       </c>
       <c r="AV18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX18" t="n">
         <v>25</v>
@@ -3725,10 +3792,10 @@
         <v>19</v>
       </c>
       <c r="BA18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-22-2008-09</t>
+          <t>2009-02-22</t>
         </is>
       </c>
     </row>
@@ -3841,10 +3908,10 @@
         <v>5</v>
       </c>
       <c r="AE19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG19" t="n">
         <v>19</v>
@@ -3871,10 +3938,10 @@
         <v>10</v>
       </c>
       <c r="AO19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
         <v>12</v>
@@ -3895,7 +3962,7 @@
         <v>10</v>
       </c>
       <c r="AW19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX19" t="n">
         <v>20</v>
@@ -3904,7 +3971,7 @@
         <v>17</v>
       </c>
       <c r="AZ19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA19" t="n">
         <v>19</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-22-2008-09</t>
+          <t>2009-02-22</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>2.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="n">
         <v>11</v>
@@ -4041,7 +4108,7 @@
         <v>29</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
         <v>9</v>
@@ -4050,7 +4117,7 @@
         <v>9</v>
       </c>
       <c r="AN20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
         <v>21</v>
@@ -4095,7 +4162,7 @@
         <v>25</v>
       </c>
       <c r="BC20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-22-2008-09</t>
+          <t>2009-02-22</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" t="n">
         <v>23</v>
       </c>
       <c r="F21" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" t="n">
-        <v>0.418</v>
+        <v>0.426</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4142,7 +4209,7 @@
         <v>38.6</v>
       </c>
       <c r="J21" t="n">
-        <v>86.90000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="K21" t="n">
         <v>0.445</v>
@@ -4151,19 +4218,19 @@
         <v>10.4</v>
       </c>
       <c r="M21" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="N21" t="n">
-        <v>0.361</v>
+        <v>0.36</v>
       </c>
       <c r="O21" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P21" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.797</v>
+        <v>0.799</v>
       </c>
       <c r="R21" t="n">
         <v>10.9</v>
@@ -4178,7 +4245,7 @@
         <v>21.8</v>
       </c>
       <c r="V21" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W21" t="n">
         <v>7.1</v>
@@ -4187,28 +4254,28 @@
         <v>2.3</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA21" t="n">
         <v>19.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.1</v>
+        <v>-1.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG21" t="n">
         <v>20</v>
@@ -4223,10 +4290,10 @@
         <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM21" t="n">
         <v>1</v>
@@ -4235,7 +4302,7 @@
         <v>20</v>
       </c>
       <c r="AO21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP21" t="n">
         <v>28</v>
@@ -4247,25 +4314,25 @@
         <v>15</v>
       </c>
       <c r="AS21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU21" t="n">
         <v>8</v>
       </c>
       <c r="AV21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AW21" t="n">
         <v>17</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>16</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ21" t="n">
         <v>6</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-22-2008-09</t>
+          <t>2009-02-22</t>
         </is>
       </c>
     </row>
@@ -4390,22 +4457,22 @@
         <v>27</v>
       </c>
       <c r="AF22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH22" t="n">
         <v>16</v>
       </c>
       <c r="AI22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="n">
         <v>30</v>
@@ -4414,13 +4481,13 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO22" t="n">
         <v>8</v>
       </c>
       <c r="AP22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ22" t="n">
         <v>11</v>
@@ -4432,22 +4499,22 @@
         <v>11</v>
       </c>
       <c r="AT22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU22" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX22" t="n">
         <v>21</v>
       </c>
       <c r="AY22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ22" t="n">
         <v>14</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-22-2008-09</t>
+          <t>2009-02-22</t>
         </is>
       </c>
     </row>
@@ -4488,37 +4555,37 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" t="n">
         <v>14</v>
       </c>
       <c r="G23" t="n">
-        <v>0.745</v>
+        <v>0.741</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J23" t="n">
         <v>78.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L23" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="M23" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.397</v>
+        <v>0.394</v>
       </c>
       <c r="O23" t="n">
         <v>19.8</v>
@@ -4527,25 +4594,25 @@
         <v>27.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.72</v>
+        <v>0.719</v>
       </c>
       <c r="R23" t="n">
         <v>10.1</v>
       </c>
       <c r="S23" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="T23" t="n">
-        <v>43.3</v>
+        <v>43.1</v>
       </c>
       <c r="U23" t="n">
         <v>19.3</v>
       </c>
       <c r="V23" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W23" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X23" t="n">
         <v>5.4</v>
@@ -4560,13 +4627,13 @@
         <v>22.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>102.2</v>
+        <v>101.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4581,7 +4648,7 @@
         <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ23" t="n">
         <v>26</v>
@@ -4590,13 +4657,13 @@
         <v>10</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM23" t="n">
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO23" t="n">
         <v>10</v>
@@ -4608,13 +4675,13 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AS23" t="n">
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU23" t="n">
         <v>29</v>
@@ -4623,10 +4690,10 @@
         <v>13</v>
       </c>
       <c r="AW23" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AX23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY23" t="n">
         <v>3</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-22-2008-09</t>
+          <t>2009-02-22</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>0.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AE24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF24" t="n">
         <v>16</v>
       </c>
-      <c r="AF24" t="n">
-        <v>15</v>
-      </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH24" t="n">
         <v>27</v>
@@ -4787,19 +4854,19 @@
         <v>13</v>
       </c>
       <c r="AQ24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR24" t="n">
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT24" t="n">
         <v>9</v>
       </c>
       <c r="AU24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV24" t="n">
         <v>20</v>
@@ -4814,7 +4881,7 @@
         <v>16</v>
       </c>
       <c r="AZ24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
         <v>12</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-22-2008-09</t>
+          <t>2009-02-22</t>
         </is>
       </c>
     </row>
@@ -4852,25 +4919,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" t="n">
         <v>31</v>
       </c>
       <c r="F25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.574</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="J25" t="n">
-        <v>79.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="K25" t="n">
         <v>0.501</v>
@@ -4882,34 +4949,34 @@
         <v>16.6</v>
       </c>
       <c r="N25" t="n">
-        <v>0.386</v>
+        <v>0.385</v>
       </c>
       <c r="O25" t="n">
         <v>20.9</v>
       </c>
       <c r="P25" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.76</v>
+        <v>0.762</v>
       </c>
       <c r="R25" t="n">
         <v>10.1</v>
       </c>
       <c r="S25" t="n">
-        <v>31.6</v>
+        <v>31.9</v>
       </c>
       <c r="T25" t="n">
-        <v>41.7</v>
+        <v>42</v>
       </c>
       <c r="U25" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="V25" t="n">
         <v>16.1</v>
       </c>
       <c r="W25" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X25" t="n">
         <v>4.8</v>
@@ -4918,7 +4985,7 @@
         <v>4.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA25" t="n">
         <v>22.7</v>
@@ -4927,16 +4994,16 @@
         <v>106.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
       </c>
       <c r="AF25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -4954,31 +5021,31 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM25" t="n">
         <v>19</v>
       </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO25" t="n">
         <v>4</v>
       </c>
       <c r="AP25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR25" t="n">
         <v>24</v>
       </c>
       <c r="AS25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AT25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AU25" t="n">
         <v>4</v>
@@ -4996,7 +5063,7 @@
         <v>8</v>
       </c>
       <c r="AZ25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA25" t="n">
         <v>7</v>
@@ -5005,7 +5072,7 @@
         <v>3</v>
       </c>
       <c r="BC25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-22-2008-09</t>
+          <t>2009-02-22</t>
         </is>
       </c>
     </row>
@@ -5037,25 +5104,25 @@
         <v>54</v>
       </c>
       <c r="E26" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G26" t="n">
-        <v>0.648</v>
+        <v>0.63</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.9</v>
+        <v>36.5</v>
       </c>
       <c r="J26" t="n">
-        <v>79.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="K26" t="n">
-        <v>0.466</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
         <v>7.3</v>
@@ -5064,7 +5131,7 @@
         <v>19.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="O26" t="n">
         <v>18.6</v>
@@ -5076,16 +5143,16 @@
         <v>0.762</v>
       </c>
       <c r="R26" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="T26" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="U26" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="V26" t="n">
         <v>13.1</v>
@@ -5094,46 +5161,46 @@
         <v>6.9</v>
       </c>
       <c r="X26" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA26" t="n">
         <v>21.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.7</v>
+        <v>99</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG26" t="n">
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ26" t="n">
         <v>20</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
@@ -5142,34 +5209,34 @@
         <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ26" t="n">
         <v>19</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>18</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU26" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AV26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW26" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AX26" t="n">
         <v>14</v>
@@ -5178,13 +5245,13 @@
         <v>2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA26" t="n">
         <v>13</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-22-2008-09</t>
+          <t>2009-02-22</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-9.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5315,7 +5382,7 @@
         <v>12</v>
       </c>
       <c r="AK27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL27" t="n">
         <v>15</v>
@@ -5327,7 +5394,7 @@
         <v>21</v>
       </c>
       <c r="AO27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP27" t="n">
         <v>12</v>
@@ -5348,7 +5415,7 @@
         <v>25</v>
       </c>
       <c r="AV27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW27" t="n">
         <v>24</v>
@@ -5357,7 +5424,7 @@
         <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ27" t="n">
         <v>28</v>
@@ -5366,7 +5433,7 @@
         <v>10</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-22-2008-09</t>
+          <t>2009-02-22</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5491,22 +5558,22 @@
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ28" t="n">
         <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM28" t="n">
         <v>8</v>
       </c>
       <c r="AN28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5521,10 +5588,10 @@
         <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU28" t="n">
         <v>7</v>
@@ -5551,7 +5618,7 @@
         <v>21</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-22-2008-09</t>
+          <t>2009-02-22</t>
         </is>
       </c>
     </row>
@@ -5580,40 +5647,40 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F29" t="n">
         <v>36</v>
       </c>
       <c r="G29" t="n">
-        <v>0.379</v>
+        <v>0.368</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="J29" t="n">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L29" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M29" t="n">
         <v>16.2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.374</v>
+        <v>0.371</v>
       </c>
       <c r="O29" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P29" t="n">
         <v>22.6</v>
@@ -5625,13 +5692,13 @@
         <v>8.699999999999999</v>
       </c>
       <c r="S29" t="n">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
       <c r="T29" t="n">
-        <v>39.2</v>
+        <v>39</v>
       </c>
       <c r="U29" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V29" t="n">
         <v>13.1</v>
@@ -5643,25 +5710,25 @@
         <v>4.9</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z29" t="n">
         <v>19.2</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>96.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.3</v>
+        <v>-3.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF29" t="n">
         <v>23</v>
@@ -5673,25 +5740,25 @@
         <v>22</v>
       </c>
       <c r="AI29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL29" t="n">
         <v>21</v>
       </c>
       <c r="AM29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP29" t="n">
         <v>26</v>
@@ -5706,19 +5773,19 @@
         <v>13</v>
       </c>
       <c r="AT29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU29" t="n">
         <v>11</v>
       </c>
       <c r="AV29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW29" t="n">
         <v>29</v>
       </c>
       <c r="AX29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY29" t="n">
         <v>9</v>
@@ -5727,13 +5794,13 @@
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB29" t="n">
         <v>22</v>
       </c>
       <c r="BC29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-22-2008-09</t>
+          <t>2009-02-22</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5928,7 @@
         <v>18</v>
       </c>
       <c r="AK30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL30" t="n">
         <v>26</v>
@@ -5879,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR30" t="n">
         <v>10</v>
@@ -5888,7 +5955,7 @@
         <v>22</v>
       </c>
       <c r="AT30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
@@ -5900,7 +5967,7 @@
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY30" t="n">
         <v>15</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-22-2008-09</t>
+          <t>2009-02-22</t>
         </is>
       </c>
     </row>
@@ -6028,10 +6095,10 @@
         <v>27</v>
       </c>
       <c r="AF31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH31" t="n">
         <v>30</v>
@@ -6058,7 +6125,7 @@
         <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ31" t="n">
         <v>20</v>
@@ -6067,7 +6134,7 @@
         <v>8</v>
       </c>
       <c r="AS31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT31" t="n">
         <v>24</v>
@@ -6085,10 +6152,10 @@
         <v>26</v>
       </c>
       <c r="AY31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-22-2008-09</t>
+          <t>2009-02-22</t>
         </is>
       </c>
     </row>
